--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
   <si>
     <t>Property</t>
   </si>
@@ -2686,9 +2686,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -917,7 +917,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
   </si>
   <si>
     <t>Identification of the facility/location where the medication was shipped to, as part of the dispense event.
-調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocarionリソースへの参照。</t>
+調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocationリソースへの参照。</t>
   </si>
   <si>
     <t>.participation[typeCode=DST].role</t>
@@ -1541,7 +1541,7 @@
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.
-指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dudgement.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
+指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dosage.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
   </si>
   <si>
     <t>Dosage.text</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
   <si>
     <t>Property</t>
   </si>
@@ -513,7 +513,7 @@
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure)
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest)
 </t>
   </si>
   <si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1349,6 +1352,10 @@
     <t>MedicationDispense.destination</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+</t>
+  </si>
+  <si>
     <t>Where the medication was sent　薬が送られた場所</t>
   </si>
   <si>
@@ -1368,7 +1375,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
@@ -2385,7 +2392,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -8678,13 +8685,11 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8702,7 +8707,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8720,7 +8725,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8734,7 +8739,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8760,10 +8765,10 @@
         <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>356</v>
@@ -8816,7 +8821,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8834,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8843,12 +8848,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8871,13 +8876,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8928,7 +8933,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8946,21 +8951,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8983,13 +8988,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9040,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9055,24 +9060,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9095,13 +9100,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>286</v>
@@ -9154,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9172,21 +9177,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9209,13 +9214,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>286</v>
@@ -9268,7 +9273,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9286,13 +9291,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9300,7 +9305,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9323,16 +9328,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9382,7 +9387,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9397,10 +9402,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9409,12 +9414,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9437,16 +9442,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9496,7 +9501,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9514,7 +9519,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9528,7 +9533,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9554,7 +9559,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9640,7 +9645,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9754,10 +9759,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9779,13 +9784,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9868,10 +9873,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9893,13 +9898,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9982,10 +9987,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10007,13 +10012,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10096,10 +10101,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10121,13 +10126,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10210,7 +10215,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10326,7 +10331,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10349,17 +10354,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10408,7 +10413,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10426,7 +10431,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10435,12 +10440,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10466,14 +10471,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10522,7 +10527,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10540,7 +10545,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10549,12 +10554,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10580,16 +10585,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10617,10 +10622,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10638,7 +10643,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10656,7 +10661,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10665,12 +10670,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10696,10 +10701,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10750,7 +10755,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10768,7 +10773,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10777,12 +10782,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10805,19 +10810,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10866,7 +10871,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10884,7 +10889,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10898,7 +10903,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11010,7 +11015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11124,7 +11129,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11240,7 +11245,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11263,17 +11268,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11322,7 +11327,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11340,7 +11345,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11354,7 +11359,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11377,17 +11382,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11436,7 +11441,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11448,13 +11453,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11468,7 +11473,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11580,7 +11585,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11694,7 +11699,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11717,13 +11722,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11774,7 +11779,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11792,7 +11797,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11806,7 +11811,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11829,19 +11834,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11890,7 +11895,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11908,7 +11913,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11922,7 +11927,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11945,13 +11950,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12002,7 +12007,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12020,7 +12025,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12034,7 +12039,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12060,16 +12065,16 @@
         <v>363</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12118,7 +12123,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12136,7 +12141,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12150,7 +12155,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12176,16 +12181,16 @@
         <v>363</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12234,7 +12239,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12252,7 +12257,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12266,7 +12271,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12292,10 +12297,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12325,10 +12330,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12346,7 +12351,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12364,7 +12369,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12378,7 +12383,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12401,13 +12406,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12415,7 +12420,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12460,7 +12465,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12478,7 +12483,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12492,7 +12497,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12515,13 +12520,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12572,7 +12577,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12590,7 +12595,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12604,7 +12609,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12630,10 +12635,10 @@
         <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12684,7 +12689,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12702,7 +12707,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12716,7 +12721,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12742,10 +12747,10 @@
         <v>363</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12796,7 +12801,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12814,7 +12819,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12828,7 +12833,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12854,10 +12859,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12887,10 +12892,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12908,7 +12913,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12926,7 +12931,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12940,7 +12945,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12966,13 +12971,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13002,7 +13007,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13020,7 +13025,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13052,7 +13057,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13075,16 +13080,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13134,7 +13139,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13166,7 +13171,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13192,16 +13197,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13229,10 +13234,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13250,7 +13255,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13268,7 +13273,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13282,7 +13287,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13305,13 +13310,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13362,7 +13367,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13380,7 +13385,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13394,7 +13399,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13420,13 +13425,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13455,10 +13460,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13476,7 +13481,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13494,7 +13499,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13508,7 +13513,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13620,7 +13625,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13734,7 +13739,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13760,13 +13765,13 @@
         <v>224</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>228</v>
@@ -13850,7 +13855,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13962,7 +13967,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14076,7 +14081,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14192,7 +14197,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14306,7 +14311,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14420,7 +14425,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14534,7 +14539,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14650,7 +14655,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14766,7 +14771,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14789,16 +14794,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14827,10 +14832,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14848,7 +14853,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14866,7 +14871,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14875,12 +14880,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14906,16 +14911,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14943,10 +14948,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14964,7 +14969,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14982,7 +14987,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14991,12 +14996,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15022,16 +15027,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>346</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15059,10 +15064,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15080,7 +15085,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15098,7 +15103,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15107,12 +15112,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15138,16 +15143,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15175,10 +15180,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15196,7 +15201,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15214,7 +15219,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15223,12 +15228,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15251,13 +15256,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15308,7 +15313,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15335,12 +15340,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15452,7 +15457,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15566,7 +15571,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15592,14 +15597,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15627,10 +15632,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15648,7 +15653,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15675,12 +15680,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15703,19 +15708,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15764,7 +15769,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15782,7 +15787,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15791,12 +15796,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15819,19 +15824,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15880,7 +15885,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15898,7 +15903,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15907,12 +15912,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15935,19 +15940,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15996,7 +16001,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16014,7 +16019,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16023,12 +16028,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16054,16 +16059,16 @@
         <v>353</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16112,7 +16117,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16130,7 +16135,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16144,7 +16149,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16170,14 +16175,14 @@
         <v>353</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16226,7 +16231,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16244,7 +16249,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16258,7 +16263,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16284,10 +16289,10 @@
         <v>304</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16338,7 +16343,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16356,13 +16361,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16370,7 +16375,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16482,7 +16487,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16596,7 +16601,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16712,7 +16717,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16738,10 +16743,10 @@
         <v>264</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16792,7 +16797,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16810,7 +16815,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16824,7 +16829,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16850,13 +16855,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16885,10 +16890,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16906,7 +16911,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16930,15 +16935,15 @@
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16964,10 +16969,10 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>346</v>
@@ -16999,10 +17004,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17020,7 +17025,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17038,13 +17043,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17052,7 +17057,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17075,13 +17080,13 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>286</v>
@@ -17134,7 +17139,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17152,13 +17157,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17166,11 +17171,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17189,16 +17194,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17248,7 +17253,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17266,7 +17271,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17280,7 +17285,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17303,16 +17308,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17362,7 +17367,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17380,7 +17385,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5031,13 +5034,11 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5113,10 +5114,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5313,7 +5314,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5336,19 +5337,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5397,7 +5398,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5415,7 +5416,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5424,12 +5425,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5455,10 +5456,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5541,7 +5542,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5655,7 +5656,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5681,16 +5682,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5739,7 +5740,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5757,7 +5758,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5766,12 +5767,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5797,13 +5798,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5853,7 +5854,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5871,7 +5872,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5880,12 +5881,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5911,14 +5912,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5967,7 +5968,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5985,7 +5986,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5994,12 +5995,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6025,14 +6026,14 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6081,7 +6082,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6099,7 +6100,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6108,12 +6109,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6136,19 +6137,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6197,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6215,7 +6216,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6224,12 +6225,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6255,16 +6256,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6313,7 +6314,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6331,7 +6332,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6340,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
@@ -6348,7 +6349,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6370,7 +6371,7 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>218</v>
@@ -6461,7 +6462,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6484,16 +6485,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6543,7 +6544,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6558,24 +6559,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6598,16 +6599,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6657,7 +6658,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6672,10 +6673,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6689,7 +6690,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6712,16 +6713,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6771,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6789,10 +6790,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6803,7 +6804,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6826,13 +6827,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6883,7 +6884,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6898,10 +6899,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6915,7 +6916,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6941,10 +6942,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -7027,7 +7028,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7141,11 +7142,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7167,10 +7168,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7225,7 +7226,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7257,7 +7258,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7283,14 +7284,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7318,10 +7319,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7339,7 +7340,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7357,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7371,7 +7372,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7394,13 +7395,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7451,7 +7452,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7466,10 +7467,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7483,7 +7484,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7506,16 +7507,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7565,7 +7566,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7583,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7597,7 +7598,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7620,16 +7621,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7679,7 +7680,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7694,24 +7695,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7737,13 +7738,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7772,10 +7773,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7793,7 +7794,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7811,21 +7812,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7848,16 +7849,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7907,7 +7908,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7925,21 +7926,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7965,10 +7966,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8051,7 +8052,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8165,7 +8166,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8188,19 +8189,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8249,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8267,7 +8268,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8276,12 +8277,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8307,20 +8308,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8344,10 +8345,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8365,7 +8366,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8383,7 +8384,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8392,12 +8393,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8423,14 +8424,14 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8479,7 +8480,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8497,7 +8498,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8506,12 +8507,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8537,14 +8538,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8593,7 +8594,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8602,7 +8603,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8611,7 +8612,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8620,12 +8621,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8651,16 +8652,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8689,7 +8690,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8708,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8726,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8734,12 +8735,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8762,16 +8763,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8821,7 +8822,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8839,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8848,12 +8849,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8876,13 +8877,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8933,7 +8934,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8951,21 +8952,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8988,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9045,7 +9046,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9060,24 +9061,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9100,16 +9101,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9159,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9177,21 +9178,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9214,16 +9215,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9273,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9291,13 +9292,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9305,7 +9306,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9328,16 +9329,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9387,7 +9388,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9402,10 +9403,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9414,12 +9415,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9442,16 +9443,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9501,7 +9502,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9519,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9533,7 +9534,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9559,7 +9560,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9645,7 +9646,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9759,10 +9760,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9784,13 +9785,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9873,10 +9874,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9898,13 +9899,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9987,10 +9988,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10012,13 +10013,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10101,10 +10102,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10126,13 +10127,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10215,11 +10216,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10241,10 +10242,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10299,7 +10300,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10332,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10354,17 +10355,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10413,7 +10414,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10431,7 +10432,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10440,12 +10441,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10471,14 +10472,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10527,7 +10528,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10545,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10554,12 +10555,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10585,16 +10586,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10622,10 +10623,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10643,7 +10644,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10661,7 +10662,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10670,12 +10671,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10701,10 +10702,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10755,7 +10756,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10773,7 +10774,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10782,12 +10783,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10810,19 +10811,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10871,7 +10872,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10889,7 +10890,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10903,7 +10904,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10929,10 +10930,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -11015,7 +11016,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11129,11 +11130,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11155,10 +11156,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11213,7 +11214,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11245,7 +11246,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11268,17 +11269,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11327,7 +11328,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11345,7 +11346,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11359,7 +11360,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11382,17 +11383,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11441,7 +11442,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11453,13 +11454,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11473,7 +11474,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11499,10 +11500,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11585,7 +11586,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11699,7 +11700,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11722,13 +11723,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11779,7 +11780,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11798,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11812,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11834,19 +11835,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11895,7 +11896,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11913,7 +11914,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11927,7 +11928,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11950,13 +11951,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12007,7 +12008,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12025,7 +12026,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12039,7 +12040,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12062,19 +12063,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12123,7 +12124,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12141,7 +12142,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12155,7 +12156,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12178,19 +12179,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12240,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12257,7 +12258,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12272,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12297,10 +12298,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12330,10 +12331,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12351,7 +12352,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12369,7 +12370,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12383,7 +12384,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12406,13 +12407,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12420,7 +12421,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12465,7 +12466,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12483,7 +12484,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12497,7 +12498,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12520,13 +12521,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12577,7 +12578,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12595,7 +12596,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12609,7 +12610,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12632,13 +12633,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12689,7 +12690,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12707,7 +12708,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12721,7 +12722,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12744,13 +12745,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12801,7 +12802,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12819,7 +12820,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12833,7 +12834,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12859,10 +12860,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12892,10 +12893,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12913,7 +12914,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12931,7 +12932,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12945,7 +12946,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12971,13 +12972,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13007,7 +13008,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13025,7 +13026,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13057,7 +13058,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13080,16 +13081,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13139,7 +13140,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13171,7 +13172,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13197,16 +13198,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13234,10 +13235,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13255,7 +13256,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13273,7 +13274,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13287,7 +13288,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13310,13 +13311,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13367,7 +13368,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13385,7 +13386,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13399,7 +13400,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13425,13 +13426,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13460,10 +13461,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13481,7 +13482,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13499,7 +13500,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13513,7 +13514,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13539,10 +13540,10 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13625,7 +13626,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13739,7 +13740,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13762,19 +13763,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13823,7 +13824,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13841,7 +13842,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13850,12 +13851,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13881,10 +13882,10 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13967,7 +13968,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14081,7 +14082,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14107,16 +14108,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14165,7 +14166,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14183,7 +14184,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14192,12 +14193,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14223,13 +14224,13 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14279,7 +14280,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14297,7 +14298,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14306,12 +14307,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14337,14 +14338,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14393,7 +14394,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14411,7 +14412,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14420,12 +14421,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14451,14 +14452,14 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14507,7 +14508,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14525,7 +14526,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14534,12 +14535,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14562,19 +14563,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14623,7 +14624,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14641,7 +14642,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14650,12 +14651,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14681,16 +14682,16 @@
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14739,7 +14740,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14757,7 +14758,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14766,12 +14767,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14794,16 +14795,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14832,10 +14833,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14853,7 +14854,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14871,7 +14872,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14880,12 +14881,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14911,16 +14912,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14948,10 +14949,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14969,7 +14970,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14987,7 +14988,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14996,12 +14997,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15027,16 +15028,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15064,10 +15065,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15085,7 +15086,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15103,7 +15104,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15112,12 +15113,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15143,16 +15144,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15180,10 +15181,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15201,7 +15202,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15219,7 +15220,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15228,12 +15229,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15256,13 +15257,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15313,7 +15314,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15340,12 +15341,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15371,10 +15372,10 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15457,7 +15458,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15571,7 +15572,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15597,14 +15598,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15632,10 +15633,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15653,7 +15654,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15680,12 +15681,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15708,19 +15709,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15769,7 +15770,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15787,7 +15788,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15796,12 +15797,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15824,19 +15825,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15885,7 +15886,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15903,7 +15904,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15912,12 +15913,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15940,19 +15941,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16001,7 +16002,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16019,7 +16020,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16028,12 +16029,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16056,19 +16057,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16117,7 +16118,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16135,7 +16136,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16149,7 +16150,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16172,17 +16173,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16231,7 +16232,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16249,7 +16250,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16263,7 +16264,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16286,13 +16287,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16343,7 +16344,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16361,13 +16362,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16375,7 +16376,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16401,10 +16402,10 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16487,7 +16488,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16601,11 +16602,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16627,10 +16628,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16685,7 +16686,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16717,7 +16718,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16740,13 +16741,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16797,7 +16798,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16815,7 +16816,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16829,7 +16830,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16855,13 +16856,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16890,10 +16891,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16911,7 +16912,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16929,21 +16930,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16969,13 +16970,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17004,10 +17005,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17025,7 +17026,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17043,13 +17044,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17057,7 +17058,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17080,16 +17081,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17139,7 +17140,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17157,13 +17158,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17171,11 +17172,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17194,16 +17195,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17253,7 +17254,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17271,7 +17272,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17285,7 +17286,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17308,16 +17309,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17367,7 +17368,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17385,7 +17386,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="765">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
@@ -4771,13 +4775,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4828,7 +4832,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4846,7 +4850,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4860,7 +4864,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4886,10 +4890,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4933,7 +4937,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4942,7 +4946,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4960,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4977,7 +4981,7 @@
         <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
@@ -5002,13 +5006,13 @@
         <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -5038,7 +5042,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5111,13 +5115,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5168,7 +5172,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5186,7 +5190,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5200,7 +5204,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5226,10 +5230,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5273,7 +5277,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5282,7 +5286,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5300,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5337,19 +5341,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5398,7 +5402,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5416,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5425,12 +5429,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5453,13 +5457,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5510,7 +5514,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5528,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5542,7 +5546,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5568,10 +5572,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>147</v>
@@ -5615,7 +5619,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5624,7 +5628,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5642,7 +5646,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5656,7 +5660,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5682,16 +5686,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5740,7 +5744,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5758,7 +5762,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5767,12 +5771,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5795,16 +5799,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5854,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5872,7 +5876,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5881,12 +5885,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5912,14 +5916,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5968,7 +5972,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5986,7 +5990,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5995,12 +5999,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6023,17 +6027,17 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6082,7 +6086,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6100,7 +6104,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6109,12 +6113,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6137,19 +6141,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6198,7 +6202,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6216,7 +6220,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6225,12 +6229,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6253,19 +6257,19 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6314,7 +6318,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6332,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6341,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -6349,7 +6353,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6371,16 +6375,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6462,7 +6466,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6485,16 +6489,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6544,7 +6548,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6559,24 +6563,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6599,16 +6603,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6658,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6673,10 +6677,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6690,7 +6694,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6713,16 +6717,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6772,7 +6776,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6790,10 +6794,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6804,7 +6808,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6827,13 +6831,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6884,7 +6888,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6899,10 +6903,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6916,7 +6920,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6939,13 +6943,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6996,7 +7000,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -7014,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -7028,7 +7032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7054,10 +7058,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>147</v>
@@ -7110,7 +7114,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -7128,7 +7132,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7142,11 +7146,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7168,10 +7172,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7226,7 +7230,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7258,7 +7262,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7284,14 +7288,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7319,10 +7323,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7340,7 +7344,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7358,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7372,7 +7376,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7395,13 +7399,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7452,7 +7456,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7467,10 +7471,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7484,7 +7488,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7507,16 +7511,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7566,7 +7570,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7584,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7598,7 +7602,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7621,16 +7625,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7680,7 +7684,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7695,24 +7699,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7738,13 +7742,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7773,10 +7777,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7794,7 +7798,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7812,21 +7816,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7849,16 +7853,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7908,7 +7912,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7926,21 +7930,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7963,13 +7967,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8020,7 +8024,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8038,7 +8042,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8052,7 +8056,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8078,10 +8082,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>147</v>
@@ -8125,7 +8129,7 @@
         <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
@@ -8134,7 +8138,7 @@
         <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -8152,7 +8156,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8166,7 +8170,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8189,19 +8193,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8250,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8268,7 +8272,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8277,12 +8281,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8308,20 +8312,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8345,10 +8349,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8366,7 +8370,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8384,7 +8388,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8393,12 +8397,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8421,17 +8425,17 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8480,7 +8484,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8498,7 +8502,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8507,12 +8511,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8538,14 +8542,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8594,7 +8598,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8603,7 +8607,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8612,7 +8616,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8621,12 +8625,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8652,16 +8656,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8690,7 +8694,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8708,7 +8712,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8726,7 +8730,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8735,12 +8739,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8763,16 +8767,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8822,7 +8826,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8840,7 +8844,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8849,12 +8853,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8877,13 +8881,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8934,7 +8938,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8952,21 +8956,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8989,13 +8993,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9046,7 +9050,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9061,24 +9065,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9101,16 +9105,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9160,7 +9164,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9178,21 +9182,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9215,16 +9219,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9274,7 +9278,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9292,13 +9296,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9306,7 +9310,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9329,16 +9333,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9388,7 +9392,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9403,10 +9407,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9415,12 +9419,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9443,16 +9447,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9502,7 +9506,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9520,7 +9524,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9534,7 +9538,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9557,13 +9561,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9614,7 +9618,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9632,7 +9636,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9646,7 +9650,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9672,10 +9676,10 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>147</v>
@@ -9719,7 +9723,7 @@
         <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
@@ -9728,7 +9732,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9746,7 +9750,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9760,10 +9764,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9785,13 +9789,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9842,7 +9846,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9874,10 +9878,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9899,13 +9903,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9956,7 +9960,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9988,10 +9992,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10013,13 +10017,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10070,7 +10074,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -10102,10 +10106,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10127,13 +10131,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10184,7 +10188,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10216,11 +10220,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10242,10 +10246,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10300,7 +10304,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10332,7 +10336,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10355,17 +10359,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10414,7 +10418,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10432,7 +10436,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10441,12 +10445,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10469,17 +10473,17 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10528,7 +10532,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10546,7 +10550,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10555,12 +10559,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10586,16 +10590,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10623,10 +10627,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10644,7 +10648,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10662,7 +10666,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10671,12 +10675,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10699,13 +10703,13 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10756,7 +10760,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10774,7 +10778,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10783,12 +10787,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10811,19 +10815,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10872,7 +10876,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10890,7 +10894,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10904,7 +10908,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10927,13 +10931,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10984,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -11002,7 +11006,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11020,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11042,10 +11046,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>147</v>
@@ -11089,7 +11093,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -11098,7 +11102,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11116,7 +11120,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11130,11 +11134,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11156,10 +11160,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11214,7 +11218,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11246,7 +11250,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11269,17 +11273,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11328,7 +11332,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11346,7 +11350,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11360,7 +11364,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11383,17 +11387,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11442,7 +11446,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11454,13 +11458,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11474,7 +11478,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11497,13 +11501,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11554,7 +11558,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11572,7 +11576,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11586,7 +11590,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11612,10 +11616,10 @@
         <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>147</v>
@@ -11659,7 +11663,7 @@
         <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
@@ -11668,7 +11672,7 @@
         <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11686,7 +11690,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11700,7 +11704,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11723,13 +11727,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11780,7 +11784,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11798,7 +11802,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11812,7 +11816,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11835,19 +11839,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11896,7 +11900,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11914,7 +11918,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11932,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11951,13 +11955,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12008,7 +12012,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12026,7 +12030,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12040,7 +12044,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12063,19 +12067,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12124,7 +12128,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12142,7 +12146,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12156,7 +12160,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12179,19 +12183,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12240,7 +12244,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12258,7 +12262,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12272,7 +12276,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12298,10 +12302,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12331,10 +12335,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12352,7 +12356,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12370,7 +12374,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12384,7 +12388,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12407,13 +12411,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12421,7 +12425,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12466,7 +12470,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12484,7 +12488,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12498,7 +12502,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12521,13 +12525,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12578,7 +12582,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12596,7 +12600,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12610,7 +12614,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12633,13 +12637,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12690,7 +12694,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12708,7 +12712,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12722,7 +12726,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12745,13 +12749,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12802,7 +12806,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12820,7 +12824,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12834,7 +12838,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12860,10 +12864,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12893,10 +12897,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12914,7 +12918,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12932,7 +12936,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12946,7 +12950,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12972,13 +12976,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13008,7 +13012,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13026,7 +13030,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13044,7 +13048,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13058,7 +13062,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13081,16 +13085,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13140,7 +13144,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13158,7 +13162,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13172,7 +13176,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13198,16 +13202,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13235,10 +13239,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13256,7 +13260,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13274,7 +13278,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13288,7 +13292,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13311,13 +13315,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13368,7 +13372,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13386,7 +13390,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13400,7 +13404,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13426,13 +13430,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13461,10 +13465,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13482,7 +13486,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13500,7 +13504,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13514,7 +13518,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13537,13 +13541,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13594,7 +13598,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13612,7 +13616,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13626,7 +13630,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13652,10 +13656,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>147</v>
@@ -13699,7 +13703,7 @@
         <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
@@ -13708,7 +13712,7 @@
         <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13726,7 +13730,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13740,7 +13744,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13763,19 +13767,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13824,7 +13828,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13842,7 +13846,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13851,12 +13855,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13879,13 +13883,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13936,7 +13940,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13954,7 +13958,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13968,7 +13972,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13994,10 +13998,10 @@
         <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>147</v>
@@ -14041,7 +14045,7 @@
         <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
@@ -14050,7 +14054,7 @@
         <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -14068,7 +14072,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14082,7 +14086,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14108,16 +14112,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14166,7 +14170,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14184,7 +14188,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14193,12 +14197,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14221,16 +14225,16 @@
         <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14280,7 +14284,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14298,7 +14302,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14307,12 +14311,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14338,14 +14342,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14394,7 +14398,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14412,7 +14416,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14421,12 +14425,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14449,17 +14453,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14508,7 +14512,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14526,7 +14530,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14535,12 +14539,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14563,19 +14567,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14624,7 +14628,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14642,7 +14646,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14651,12 +14655,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14679,19 +14683,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14740,7 +14744,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14758,7 +14762,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14767,12 +14771,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14795,16 +14799,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14833,10 +14837,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14854,7 +14858,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14872,7 +14876,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14881,12 +14885,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14912,16 +14916,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14949,10 +14953,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14970,7 +14974,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14988,7 +14992,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14997,12 +15001,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15028,16 +15032,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15065,10 +15069,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15086,7 +15090,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15104,7 +15108,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15113,12 +15117,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15144,16 +15148,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15181,10 +15185,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15202,7 +15206,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15220,7 +15224,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15229,12 +15233,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15257,13 +15261,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15314,7 +15318,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15341,12 +15345,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15369,13 +15373,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15426,7 +15430,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15444,7 +15448,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15458,7 +15462,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15484,10 +15488,10 @@
         <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>147</v>
@@ -15531,7 +15535,7 @@
         <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
@@ -15540,7 +15544,7 @@
         <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -15558,7 +15562,7 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15572,7 +15576,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15598,14 +15602,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15633,10 +15637,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15654,7 +15658,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15681,12 +15685,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15709,19 +15713,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15770,7 +15774,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15788,7 +15792,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15797,12 +15801,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15825,19 +15829,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15886,7 +15890,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15904,7 +15908,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15913,12 +15917,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15941,19 +15945,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16002,7 +16006,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16020,7 +16024,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16029,12 +16033,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16057,19 +16061,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16118,7 +16122,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16136,7 +16140,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16150,7 +16154,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16173,17 +16177,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16232,7 +16236,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16250,7 +16254,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16264,7 +16268,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16287,13 +16291,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16344,7 +16348,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16362,13 +16366,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16376,7 +16380,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16399,13 +16403,13 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16456,7 +16460,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16474,7 +16478,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16488,7 +16492,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16514,10 +16518,10 @@
         <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>147</v>
@@ -16570,7 +16574,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16588,7 +16592,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16602,11 +16606,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16628,10 +16632,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16686,7 +16690,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16718,7 +16722,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16741,13 +16745,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16798,7 +16802,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16816,7 +16820,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16830,7 +16834,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16856,13 +16860,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16891,10 +16895,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16912,7 +16916,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16930,21 +16934,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16970,13 +16974,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17005,10 +17009,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17026,7 +17030,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17044,13 +17048,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17058,7 +17062,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17081,16 +17085,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17140,7 +17144,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17158,13 +17162,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17172,11 +17176,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17195,16 +17199,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17254,7 +17258,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17272,7 +17276,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17286,7 +17290,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17309,16 +17313,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17368,7 +17372,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17386,7 +17390,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,7 +258,7 @@
     <t>指定された患者への薬剤の払い出し</t>
   </si>
   <si>
-    <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダーに対して薬局システムが対応した結果となる。</t>
+    <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -533,7 +533,7 @@
     <t>MedicationDispense.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown</t>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown 一連の調剤イベントの状態</t>
   </si>
   <si>
     <t>A code specifying the state of the set of dispense events.
@@ -677,7 +677,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -717,11 +717,11 @@
 </t>
   </si>
   <si>
-    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
+    <t>Encounter / Episode associated with event　調剤ベントに関連するEncounterやエピソード</t>
   </si>
   <si>
     <t>The encounter or episode of care that establishes the context for this event.
-調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
+調剤ベントに関連するEncounterやエピソードへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -907,7 +907,7 @@
     <t>MedicationDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>実行される調剤イベント</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
@@ -915,7 +915,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t>払い出される薬剤の量</t>
+    <t>Trial fill, partial fill, emergency fill, etc. 払い出される薬剤の量</t>
   </si>
   <si>
     <t>調剤総量。
@@ -1067,7 +1067,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1086,10 +1086,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1102,7 +1099,7 @@
     <t>MedicationDispense.substitution</t>
   </si>
   <si>
-    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか。</t>
+    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか</t>
   </si>
   <si>
     <t>Indicates whether or not substitution was made as part of the dispense. In some cases, substitution will be expected but does not happen, in other cases substitution is not expected but does happen. This block explains what substitution did or did not happen and why. If nothing is specified, substitution was not done. 
@@ -1131,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す。</t>
+    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す</t>
   </si>
   <si>
     <t>True if the dispenser dispensed a different drug or product from what was prescribed. 
@@ -5859,10 +5856,10 @@
         <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5930,7 +5927,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5944,7 +5941,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5970,10 +5967,10 @@
         <v>232</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6024,7 +6021,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6042,13 +6039,13 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6056,7 +6053,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6168,7 +6165,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6282,7 +6279,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6398,7 +6395,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6421,13 +6418,13 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6478,7 +6475,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>86</v>
@@ -6496,7 +6493,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6510,7 +6507,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6536,13 +6533,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6571,11 +6568,11 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6616,15 +6613,15 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6650,10 +6647,10 @@
         <v>186</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>282</v>
@@ -6685,11 +6682,11 @@
         <v>180</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6724,13 +6721,13 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6761,13 +6758,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>214</v>
@@ -6820,7 +6817,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6838,13 +6835,13 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6852,11 +6849,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6875,16 +6872,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6934,7 +6931,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -6952,7 +6949,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -6966,7 +6963,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6989,16 +6986,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7048,7 +7045,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7066,7 +7063,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -485,29 +485,306 @@
     <t>MedicationDispense.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として調剤の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>orderInRp</t>
+  </si>
+  <si>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
+  </si>
+  <si>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番</t>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
   </si>
   <si>
     <t>MedicationDispense.partOf</t>
@@ -543,9 +820,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
@@ -594,10 +868,6 @@
   </si>
   <si>
     <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type of medication dispense　調剤タイプ</t>
@@ -773,32 +1043,7 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1566,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1602,7 +1847,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2883,7 +3128,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -2898,16 +3143,16 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2945,16 +3190,14 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>150</v>
@@ -2972,16 +3215,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2989,18 +3232,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3012,15 +3257,17 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3069,7 +3316,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3084,16 +3331,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3109,7 +3356,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
@@ -3118,23 +3365,21 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3159,55 +3404,55 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3215,18 +3460,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3238,15 +3483,17 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3271,49 +3518,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3327,7 +3574,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3344,24 +3591,26 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3385,13 +3634,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3409,7 +3658,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3427,7 +3676,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3436,12 +3685,12 @@
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3449,7 +3698,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
@@ -3464,18 +3713,20 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3499,32 +3750,34 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3536,28 +3789,26 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3578,30 +3829,32 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3613,13 +3866,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3637,10 +3890,10 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3652,24 +3905,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3692,16 +3945,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3715,7 +3968,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -3751,7 +4004,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3766,24 +4019,24 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3803,20 +4056,18 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3880,10 +4131,10 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -3892,12 +4143,12 @@
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3908,7 +4159,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3917,19 +4168,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3979,13 +4230,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3997,23 +4248,25 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4034,15 +4287,17 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4091,7 +4346,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4106,16 +4361,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4123,7 +4378,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4146,13 +4401,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4203,7 +4458,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4221,7 +4476,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4235,7 +4490,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4261,10 +4516,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
@@ -4305,19 +4560,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4335,7 +4590,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4349,18 +4604,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4372,19 +4627,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4409,13 +4664,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4433,39 +4688,39 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4485,20 +4740,22 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4523,13 +4780,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4547,7 +4804,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4565,7 +4822,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4574,12 +4831,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4599,31 +4856,35 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4659,10 +4920,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4674,10 +4935,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4686,12 +4947,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4699,7 +4960,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -4711,19 +4972,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4737,7 +4998,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4773,7 +5034,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4791,7 +5052,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4800,12 +5061,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4816,7 +5077,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -4825,20 +5086,18 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4887,13 +5146,13 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -4902,24 +5161,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4939,19 +5198,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4977,13 +5236,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5001,7 +5260,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5019,23 +5278,25 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5056,16 +5317,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5115,39 +5376,39 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5170,17 +5431,15 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5229,7 +5488,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5238,16 +5497,16 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5256,23 +5515,23 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5281,18 +5540,20 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5329,51 +5590,51 @@
         <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5381,7 +5642,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5390,22 +5651,26 @@
         <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5429,13 +5694,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5453,7 +5718,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5468,24 +5733,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5505,21 +5770,23 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5543,13 +5810,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5834,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5585,21 +5852,21 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5607,10 +5874,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5619,33 +5886,35 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>77</v>
@@ -5681,13 +5950,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5699,21 +5968,21 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5721,10 +5990,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5733,19 +6002,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5759,7 +6028,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -5795,13 +6064,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5810,10 +6079,10 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5822,12 +6091,12 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5838,7 +6107,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -5847,20 +6116,18 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -5909,13 +6176,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -5927,7 +6194,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5936,12 +6203,12 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5961,18 +6228,20 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6021,7 +6290,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6039,21 +6308,21 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>339</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6064,7 +6333,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6076,13 +6345,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6133,25 +6402,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6165,39 +6434,39 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6223,13 +6492,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6247,31 +6516,31 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6279,43 +6548,39 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6339,13 +6604,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6363,25 +6628,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6395,7 +6660,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6403,7 +6668,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6418,15 +6683,17 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6451,13 +6718,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6475,10 +6742,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6493,7 +6760,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6507,7 +6774,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6515,7 +6782,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6527,19 +6794,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6565,34 +6832,32 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6604,35 +6869,37 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>356</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6641,19 +6908,19 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6679,13 +6946,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6703,13 +6970,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6718,24 +6985,24 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6743,10 +7010,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6755,19 +7022,19 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6817,13 +7084,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -6832,35 +7099,35 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -6872,16 +7139,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6931,13 +7198,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -6946,10 +7213,10 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -6963,7 +7230,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6986,16 +7253,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7045,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7063,15 +7330,3081 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
   </si>
   <si>
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1753,55 +1752,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1864,221 +1863,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -2087,13 +2086,13 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -2102,20 +2101,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2134,80 +2133,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2216,20 +2215,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2246,80 +2245,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2328,17 +2327,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -2360,80 +2359,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2442,23 +2441,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -2474,26 +2473,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -2505,49 +2504,49 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2560,19 +2559,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2588,80 +2587,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2674,19 +2673,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2702,80 +2701,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2784,23 +2783,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>131</v>
@@ -2814,45 +2813,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>135</v>
@@ -2861,31 +2860,31 @@
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2896,23 +2895,23 @@
         <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>139</v>
@@ -2926,59 +2925,59 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>142</v>
@@ -2987,19 +2986,19 @@
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -3012,19 +3011,19 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>131</v>
@@ -3042,80 +3041,80 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3124,23 +3123,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>151</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>152</v>
@@ -3156,45 +3155,45 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>135</v>
@@ -3203,13 +3202,13 @@
         <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
@@ -3227,7 +3226,7 @@
         <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3238,7 +3237,7 @@
         <v>161</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3248,13 +3247,13 @@
         <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>152</v>
@@ -3270,62 +3269,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
@@ -3343,7 +3342,7 @@
         <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3352,23 +3351,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>166</v>
@@ -3382,80 +3381,80 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3468,19 +3467,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>131</v>
@@ -3496,38 +3495,38 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>134</v>
@@ -3536,7 +3535,7 @@
         <v>174</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>135</v>
@@ -3545,31 +3544,31 @@
         <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3578,17 +3577,17 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>87</v>
@@ -3612,26 +3611,26 @@
         <v>180</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>181</v>
@@ -3643,46 +3642,46 @@
         <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>129</v>
@@ -3694,20 +3693,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3728,26 +3727,26 @@
         <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>192</v>
@@ -3759,46 +3758,46 @@
         <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>196</v>
@@ -3810,7 +3809,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3820,10 +3819,10 @@
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3844,77 +3843,77 @@
         <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>203</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>206</v>
@@ -3926,7 +3925,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3936,10 +3935,10 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -3958,77 +3957,77 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>214</v>
@@ -4040,20 +4039,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -4070,77 +4069,77 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>221</v>
@@ -4152,20 +4151,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
@@ -4184,77 +4183,77 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>229</v>
@@ -4268,23 +4267,23 @@
         <v>230</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>152</v>
@@ -4300,62 +4299,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -4373,7 +4372,7 @@
         <v>160</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -4382,23 +4381,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>166</v>
@@ -4412,80 +4411,80 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4498,19 +4497,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>131</v>
@@ -4526,38 +4525,38 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>134</v>
@@ -4566,7 +4565,7 @@
         <v>174</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>135</v>
@@ -4575,31 +4574,31 @@
         <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4608,17 +4607,17 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>87</v>
@@ -4642,26 +4641,26 @@
         <v>180</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>181</v>
@@ -4673,46 +4672,46 @@
         <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>129</v>
@@ -4724,20 +4723,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4758,26 +4757,26 @@
         <v>191</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>192</v>
@@ -4789,46 +4788,46 @@
         <v>194</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>196</v>
@@ -4840,7 +4839,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4850,10 +4849,10 @@
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4874,77 +4873,77 @@
         <v>201</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>236</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>203</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>206</v>
@@ -4956,7 +4955,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4966,10 +4965,10 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -4988,77 +4987,77 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>211</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>214</v>
@@ -5070,20 +5069,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
@@ -5100,77 +5099,77 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>221</v>
@@ -5182,20 +5181,20 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5214,77 +5213,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>229</v>
@@ -5298,7 +5297,7 @@
         <v>240</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5308,13 +5307,13 @@
         <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>152</v>
@@ -5330,62 +5329,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
@@ -5403,7 +5402,7 @@
         <v>160</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5412,23 +5411,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>166</v>
@@ -5442,80 +5441,80 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5528,19 +5527,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>131</v>
@@ -5556,38 +5555,38 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>134</v>
@@ -5596,7 +5595,7 @@
         <v>174</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>135</v>
@@ -5605,31 +5604,31 @@
         <v>175</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5638,17 +5637,17 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>87</v>
@@ -5672,26 +5671,26 @@
         <v>180</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>181</v>
@@ -5703,46 +5702,46 @@
         <v>183</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>129</v>
@@ -5754,20 +5753,20 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>87</v>
@@ -5788,26 +5787,26 @@
         <v>191</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>192</v>
@@ -5819,46 +5818,46 @@
         <v>194</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>196</v>
@@ -5870,7 +5869,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5880,10 +5879,10 @@
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
@@ -5904,77 +5903,77 @@
         <v>201</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>246</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>203</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>206</v>
@@ -5986,7 +5985,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5996,10 +5995,10 @@
         <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>87</v>
@@ -6018,77 +6017,77 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>211</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>214</v>
@@ -6100,20 +6099,20 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>87</v>
@@ -6130,77 +6129,77 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>221</v>
@@ -6212,20 +6211,20 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>87</v>
@@ -6244,77 +6243,77 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>229</v>
@@ -6326,23 +6325,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>250</v>
@@ -6356,62 +6355,62 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
@@ -6423,13 +6422,13 @@
         <v>254</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -6438,7 +6437,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6448,7 +6447,7 @@
         <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>87</v>
@@ -6470,26 +6469,26 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>181</v>
@@ -6501,19 +6500,19 @@
         <v>260</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>255</v>
@@ -6525,7 +6524,7 @@
         <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>98</v>
@@ -6543,7 +6542,7 @@
         <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -6552,23 +6551,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>266</v>
@@ -6582,26 +6581,26 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>269</v>
@@ -6613,31 +6612,31 @@
         <v>271</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>98</v>
@@ -6649,13 +6648,13 @@
         <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -6664,23 +6663,23 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>187</v>
@@ -6696,26 +6695,26 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>110</v>
@@ -6727,49 +6726,49 @@
         <v>279</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6778,7 +6777,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6788,10 +6787,10 @@
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>87</v>
@@ -6810,26 +6809,26 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
         <v>269</v>
@@ -6841,14 +6840,14 @@
         <v>286</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>288</v>
@@ -6863,7 +6862,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6892,7 +6891,7 @@
         <v>294</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6902,10 +6901,10 @@
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>87</v>
@@ -6924,26 +6923,26 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>110</v>
@@ -6955,19 +6954,19 @@
         <v>297</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>281</v>
@@ -6979,7 +6978,7 @@
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
@@ -7006,7 +7005,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7016,10 +7015,10 @@
         <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>87</v>
@@ -7038,62 +7037,62 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
@@ -7108,7 +7107,7 @@
         <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>306</v>
@@ -7120,23 +7119,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>308</v>
@@ -7152,62 +7151,62 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>98</v>
@@ -7219,13 +7218,13 @@
         <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7234,23 +7233,23 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>314</v>
@@ -7266,68 +7265,68 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>313</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>317</v>
@@ -7336,10 +7335,10 @@
         <v>318</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -7348,23 +7347,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>320</v>
@@ -7378,62 +7377,62 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>319</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>98</v>
@@ -7445,13 +7444,13 @@
         <v>324</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -7460,23 +7459,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>166</v>
@@ -7490,80 +7489,80 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -7576,19 +7575,19 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>131</v>
@@ -7604,80 +7603,80 @@
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -7690,13 +7689,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>87</v>
@@ -7720,80 +7719,80 @@
         <v>148</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -7802,23 +7801,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>187</v>
@@ -7834,26 +7833,26 @@
         <v>335</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>269</v>
@@ -7865,49 +7864,49 @@
         <v>337</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>338</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -7916,7 +7915,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7926,13 +7925,13 @@
         <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>340</v>
@@ -7946,50 +7945,50 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>339</v>
@@ -8001,7 +8000,7 @@
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -8013,13 +8012,13 @@
         <v>344</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -8028,23 +8027,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>346</v>
@@ -8060,80 +8059,80 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>349</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -8142,23 +8141,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>351</v>
@@ -8174,62 +8173,62 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
@@ -8241,7 +8240,7 @@
         <v>356</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>357</v>
@@ -8256,23 +8255,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>187</v>
@@ -8288,26 +8287,26 @@
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
         <v>269</v>
@@ -8319,43 +8318,43 @@
         <v>364</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>366</v>
@@ -8370,7 +8369,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8380,13 +8379,13 @@
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>369</v>
@@ -8402,56 +8401,56 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>368</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -8463,16 +8462,16 @@
         <v>373</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>375</v>
@@ -8484,23 +8483,23 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>369</v>
@@ -8516,56 +8515,56 @@
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -8577,16 +8576,16 @@
         <v>373</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>374</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>375</v>
@@ -8598,20 +8597,20 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>87</v>
@@ -8628,74 +8627,74 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>383</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>384</v>
@@ -8710,7 +8709,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8720,13 +8719,13 @@
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>380</v>
@@ -8740,62 +8739,62 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
@@ -8807,7 +8806,7 @@
         <v>390</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>384</v>
@@ -8822,23 +8821,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>346</v>
@@ -8854,74 +8853,74 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>395</v>
@@ -8936,23 +8935,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>398</v>
@@ -8968,80 +8967,80 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -9050,23 +9049,23 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>404</v>
@@ -9082,62 +9081,62 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
@@ -9149,10 +9148,10 @@
         <v>409</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>410</v>
@@ -9164,23 +9163,23 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>412</v>
@@ -9196,80 +9195,80 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>411</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -9278,23 +9277,23 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>320</v>
@@ -9308,80 +9307,80 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>416</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>420</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
@@ -9390,23 +9389,23 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>166</v>
@@ -9420,80 +9419,80 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
@@ -9506,19 +9505,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>131</v>
@@ -9534,80 +9533,80 @@
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
@@ -9620,13 +9619,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>87</v>
@@ -9650,80 +9649,80 @@
         <v>148</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>331</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -9732,7 +9731,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9742,13 +9741,13 @@
         <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>425</v>
@@ -9762,50 +9761,50 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>424</v>
@@ -9817,25 +9816,25 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
@@ -9844,23 +9843,23 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>187</v>
@@ -9876,26 +9875,26 @@
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
         <v>269</v>
@@ -9907,43 +9906,43 @@
         <v>434</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>365</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>435</v>
@@ -9958,23 +9957,23 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>187</v>
@@ -9990,26 +9989,26 @@
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
         <v>269</v>
@@ -10021,49 +10020,49 @@
         <v>441</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>437</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>442</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>443</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
@@ -10072,23 +10071,23 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>445</v>
@@ -10104,80 +10103,80 @@
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>444</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>448</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>449</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
@@ -10190,19 +10189,19 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>452</v>
@@ -10218,80 +10217,80 @@
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>450</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>456</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
@@ -10300,23 +10299,23 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>458</v>
@@ -10332,80 +10331,80 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>457</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>462</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
